--- a/biology/Botanique/Gélivasque/Gélivasque.xlsx
+++ b/biology/Botanique/Gélivasque/Gélivasque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9livasque</t>
+          <t>Gélivasque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Une gélivasque est une dépression topographique de faible dimension dépourvue de couvert arborescent à l'intérieur d'un environnement forestier au sein de la forêt boréale[1]. »
-La gélivasque est créée par l'affaissement du sol qui favorise la concentration de masses d'air froid — plus dense et plus lourd — lors des nuits sans vent.  Dans la forêt boréale, la température estivale de ces masses d'air tombe souvent sous le point de congélation, ce qui nuit à l'établissement des arbres, généralement l'épinette noire, en tuant les jeunes pousses.  Le résultat est une clairière tapissée de lichens et entourée d'arbres chétifs et rabougris, ceux-ci devenant de plus en plus matures et hauts à mesure qu'on s'éloigne de la dépression[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Une gélivasque est une dépression topographique de faible dimension dépourvue de couvert arborescent à l'intérieur d'un environnement forestier au sein de la forêt boréale. »
+La gélivasque est créée par l'affaissement du sol qui favorise la concentration de masses d'air froid — plus dense et plus lourd — lors des nuits sans vent.  Dans la forêt boréale, la température estivale de ces masses d'air tombe souvent sous le point de congélation, ce qui nuit à l'établissement des arbres, généralement l'épinette noire, en tuant les jeunes pousses.  Le résultat est une clairière tapissée de lichens et entourée d'arbres chétifs et rabougris, ceux-ci devenant de plus en plus matures et hauts à mesure qu'on s'éloigne de la dépression.  
 </t>
         </is>
       </c>
